--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -625,10 +625,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">TableName: "Sample" Package: "gamedef" </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>注释</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -662,6 +658,10 @@
   </si>
   <si>
     <t>MakeIndex:true</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "Sample" Package: "gamedef"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1128,7 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1147,7 +1147,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1379,7 +1379,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -1396,7 +1396,7 @@
         <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>29</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -1436,7 +1436,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -1453,7 +1453,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1470,7 +1470,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1487,7 +1487,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,40 +131,6 @@
           </rPr>
           <t xml:space="preserve">
 在@Types Sheet中的ActorType定义中, 可以使用Alias进行别名标注. 推荐使用中文方法标记枚举</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-结构体字段依然支持</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Alias别名功能, 在@Types Sheet中定义</t>
         </r>
       </text>
     </comment>
@@ -176,6 +142,40 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+结构体字段依然支持</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Alias别名功能, 在@Types Sheet中定义</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Fighter</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -605,10 +605,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ListSpliter: ";"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -662,6 +658,18 @@
   </si>
   <si>
     <t>TableName: "Sample" Package: "gamedef"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1126,58 +1134,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="32.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="20.125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.5" style="2" customWidth="1"/>
+    <col min="6" max="7" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1185,171 +1197,177 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="E4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>0.6</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="4"/>
+      <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>0.8</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2">
+      <c r="E6" s="4"/>
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>0.7</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="4"/>
+      <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="G9" s="2" t="s">
+      <c r="E9" s="4"/>
+      <c r="H9" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F10" s="6"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G10" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1363,9 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1379,7 +1395,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -1396,7 +1412,7 @@
         <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>29</v>
@@ -1416,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -1436,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -1453,7 +1469,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -1470,7 +1486,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1487,7 +1503,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Fighter</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -432,26 +432,6 @@
   </si>
   <si>
     <t>repeated int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActorType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fighter</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alias: "格斗士"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alias: "超能"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -622,14 +602,6 @@
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>超能</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1156,37 +1128,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -1197,13 +1169,13 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>22</v>
@@ -1215,32 +1187,32 @@
         <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -1255,13 +1227,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>3</v>
@@ -1291,13 +1263,13 @@
         <v>2</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -1379,9 +1351,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1395,118 +1369,78 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -649,9 +649,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,9 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1106,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1154,10 +1148,10 @@
       <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1189,7 +1183,7 @@
       <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1262,13 +1256,13 @@
       <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1310,7 +1304,7 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1337,9 +1331,6 @@
       <c r="H9" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G10" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1353,7 +1344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -617,32 +617,32 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>RepeatCheck:true MakeIndex:true</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeIndex:true</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "Sample" Package: "gamedef"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepeatCheck:true MakeIndex:true</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MakeIndex:true</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableName: "Sample" Package: "gamedef"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListSpliter: ";"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1122,13 +1122,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -1163,7 +1163,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -1192,10 +1192,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1206,7 +1206,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -1360,7 +1360,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -387,10 +387,6 @@
   </si>
   <si>
     <t>邋遢大王</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -643,6 +639,10 @@
   <si>
     <t>ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1122,91 +1122,91 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -1221,25 +1221,25 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -1257,13 +1257,13 @@
         <v>2</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -1271,7 +1271,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4">
         <v>0.8</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4">
         <v>0.7</v>
@@ -1311,7 +1311,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -1360,78 +1360,78 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -335,12 +335,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+优先使用注释内容作为代码注释, 注释不存在时, 取特性的Alias字段内容</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Fighter</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -601,18 +625,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>血量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>RepeatCheck:true MakeIndex:true</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -642,6 +654,10 @@
   </si>
   <si>
     <t>BuffID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1103,7 +1119,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1122,13 +1138,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
@@ -1137,7 +1153,7 @@
         <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
@@ -1163,7 +1179,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
@@ -1192,10 +1208,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1206,7 +1222,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -1216,7 +1232,9 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1292,7 +1310,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -1345,7 +1363,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1360,7 +1378,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -1393,9 +1411,6 @@
       <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
@@ -1410,9 +1425,6 @@
       <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
       <c r="F4" t="s">
         <v>38</v>
       </c>
@@ -1426,9 +1438,6 @@
       </c>
       <c r="C5" t="s">
         <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -552,10 +552,6 @@
   </si>
   <si>
     <t>血量: 3  额外类型:超能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackRate:3.5</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -658,6 +654,10 @@
   </si>
   <si>
     <t>图标ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRate:3.5</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -808,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,6 +834,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,7 +1122,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1138,22 +1141,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
@@ -1179,13 +1182,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -1208,21 +1211,21 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -1233,13 +1236,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>26</v>
@@ -1275,13 +1278,13 @@
         <v>2</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>47</v>
+      <c r="K5" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -1378,7 +1381,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -1395,7 +1398,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>23</v>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0">
+    <comment ref="K5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0">
+    <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,195 +364,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Fighter</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Power</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>格斗士</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>唯一ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>攻击率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>字符串结构</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>黑猫警长</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>邋遢大王</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>葫芦\n娃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>舒"克"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>贝
 塔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>自定义别名之中文字段</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>技能ID列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ActorType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>int64</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>repeated int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>字段名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>特性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>repeated Prop</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>NumericalRate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>repeated Prop</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>repeated int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>SkillID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Prop</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>HP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Default: "10" Alias:"血量"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>AttackRate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ExType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Alias:"额外类型"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Alias:"攻击速率"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>StrStruct</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>字段类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ActorType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>对象类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>枚举值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>血量: 3  额外类型:超能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -598,74 +598,90 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ItemID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Default: "100"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>物品id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MakeIndex:true</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>TableName: "Sample" Package: "gamedef"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IconID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ListSpliter: ";"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>图标ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>AttackRate:3.5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleStruct</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量:100 攻击速率:1.2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单结构解析</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +689,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -808,24 +838,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -834,9 +870,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1134,12 +1167,13 @@
     <col min="6" max="7" width="15.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="21.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1167,14 +1201,17 @@
       <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>39</v>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="L1" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1202,14 +1239,17 @@
       <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1227,8 +1267,9 @@
       <c r="I3" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1257,13 +1298,16 @@
         <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -1280,14 +1324,17 @@
       <c r="I5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -1311,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -1325,9 +1372,9 @@
       <c r="H7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -1338,7 +1385,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
@@ -1354,7 +1401,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1447,7 +1494,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+列可以自由调整位置</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Fighter</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -674,6 +700,30 @@
   </si>
   <si>
     <t>单结构解析</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1154,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1168,7 +1218,7 @@
     <col min="8" max="8" width="17.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24" style="2" customWidth="1"/>
     <col min="12" max="12" width="32.125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
@@ -1410,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1421,9 +1471,9 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -1431,38 +1481,44 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1470,13 +1526,13 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1484,12 +1540,26 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
         <v>37</v>
       </c>
     </row>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1462,7 +1462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -142,6 +142,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -151,6 +152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -369,6 +371,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -378,6 +381,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -651,10 +655,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>MakeIndex:true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "Sample" Package: "gamedef"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -724,6 +724,10 @@
   </si>
   <si>
     <t>FieldName</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeIndex:true</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +735,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,19 +818,6 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1204,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1225,13 +1216,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
@@ -1240,7 +1231,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
@@ -1252,7 +1243,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>39</v>
@@ -1269,7 +1260,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
@@ -1290,7 +1281,7 @@
         <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>27</v>
@@ -1304,7 +1295,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1315,7 +1306,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -1327,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -1348,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>9</v>
@@ -1375,13 +1366,13 @@
         <v>47</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>46</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -1478,27 +1469,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
         <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -412,24 +412,12 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>字符串结构</t>
@@ -679,55 +667,67 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>AttackRate:3.5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleStruct</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量:100 攻击速率:1.2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单结构解析</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeIndex:true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>图标ID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>AttackRate:3.5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleStruct</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量:100 攻击速率:1.2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>单结构解析</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ObjectType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meta</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldName</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MakeIndex:true</t>
+    <t>攻击率</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1216,136 +1216,136 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1353,7 +1353,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4">
         <v>0.6</v>
@@ -1363,16 +1363,16 @@
         <v>2</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -1380,7 +1380,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4">
         <v>0.8</v>
@@ -1404,7 +1404,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4">
         <v>0.7</v>
@@ -1420,7 +1420,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -1431,7 +1431,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1469,89 +1469,89 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -639,10 +639,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>RepeatCheck:true MakeIndex:true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "Sample" Package: "gamedef"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -711,10 +707,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>MakeIndex:true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>唯一ID</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -728,6 +720,14 @@
   </si>
   <si>
     <t>攻击率</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatCheck:true MakeIndex:true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeIndex:true 我是tag: "haha"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1216,13 +1216,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -1231,7 +1231,7 @@
         <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>26</v>
@@ -1243,7 +1243,7 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>36</v>
@@ -1260,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1281,7 +1281,7 @@
         <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>24</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1306,22 +1306,22 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>48</v>
@@ -1339,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>6</v>
@@ -1366,13 +1366,13 @@
         <v>44</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1469,27 +1469,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
         <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -727,7 +727,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>MakeIndex:true 我是tag: "haha"</t>
+    <t>MakeIndex:true 自定义tag: "支持go的struct tag"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -283,6 +283,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
+    <author>Davy</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -337,6 +338,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="E2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Davy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+别名,字段在使用时, 可直接使用别名</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -363,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>Fighter</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -521,23 +548,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Default: "10" Alias:"血量"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackRate</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ExType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alias:"额外类型"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alias:"攻击速率"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -728,6 +743,34 @@
   </si>
   <si>
     <t>MakeIndex:true 自定义tag: "支持go的struct tag"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>别名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速率</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1216,22 +1259,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>26</v>
@@ -1243,13 +1286,13 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1260,13 +1303,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
@@ -1281,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>24</v>
@@ -1292,39 +1335,39 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>23</v>
@@ -1339,7 +1382,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>6</v>
@@ -1363,16 +1406,16 @@
         <v>2</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -1451,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1462,57 +1505,69 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="4" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>49</v>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1520,38 +1575,41 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>72</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -654,10 +654,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "Sample" Package: "gamedef"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>IconID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -771,6 +767,10 @@
   </si>
   <si>
     <t>默认值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "Sample" Package: "table"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -971,6 +971,170 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="2886075"/>
+          <a:ext cx="3648075" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注意</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>本表格需要配合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Globals</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>表和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Info</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>表处理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Export.bat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>统一导出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>这是项目中最终使用的方式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>如果只使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>个表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>请将所有类型信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>(@Types</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>表单</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>放在这个表里</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1239,7 +1403,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1259,13 +1423,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -1274,7 +1438,7 @@
         <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>26</v>
@@ -1286,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>33</v>
@@ -1303,7 +1467,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1324,7 +1488,7 @@
         <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>24</v>
@@ -1335,10 +1499,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1349,22 +1513,22 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>45</v>
@@ -1382,7 +1546,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>6</v>
@@ -1409,13 +1573,13 @@
         <v>41</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -1488,7 +1652,8 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1497,7 +1662,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1512,33 +1677,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
         <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1555,10 +1720,10 @@
         <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>20</v>
@@ -1578,7 +1743,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1595,7 +1760,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1609,7 +1774,7 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/exportorv2/sample/Sample.xlsx
+++ b/exportorv2/sample/Sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -421,19 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
-  <si>
-    <t>Fighter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗士</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>类型</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -582,10 +570,6 @@
   <si>
     <t>枚举值</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量: 3  额外类型:超能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -771,6 +755,25 @@
   </si>
   <si>
     <t>TableName: "Sample" Package: "table"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐僧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空</t>
+  </si>
+  <si>
+    <t>沙僧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪八戒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量: 3  额外类型:唐僧</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -922,7 +925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,6 +957,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1402,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1423,136 +1429,136 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1560,26 +1566,26 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4">
         <v>0.6</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="H5" s="2" t="s">
-        <v>2</v>
+      <c r="H5" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -1587,7 +1593,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4">
         <v>0.8</v>
@@ -1599,8 +1605,8 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>1</v>
+      <c r="H6" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1611,14 +1617,14 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4">
         <v>0.7</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="H7" s="2" t="s">
-        <v>0</v>
+      <c r="H7" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="L7" s="7"/>
     </row>
@@ -1627,25 +1633,28 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
+      <c r="H8" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="H9" s="2" t="s">
-        <v>0</v>
+      <c r="H9" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1661,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1677,73 +1686,73 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1751,30 +1760,30 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
